--- a/data/trans_dic/P80_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P80_R-Edad-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.03594101493793907</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.03770156171699849</v>
+        <v>0.03770156171699848</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01512301390687994</v>
+        <v>0.01577090062213706</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01646127484222473</v>
+        <v>0.01740696112629628</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.020934972550682</v>
+        <v>0.02155657636090954</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.08196789888334542</v>
+        <v>0.08460534762162318</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06913378397204065</v>
+        <v>0.06749298491586979</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06236913628464223</v>
+        <v>0.06165488974342095</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.022778094936481</v>
+        <v>0.02242262584749763</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.007618374470261233</v>
+        <v>0.007505471978691815</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01688056398229935</v>
+        <v>0.01796199721385218</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07586356503563624</v>
+        <v>0.06955017687182376</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03430065474553791</v>
+        <v>0.03290736721981753</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04319544508330198</v>
+        <v>0.04329443135253908</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01907418455433154</v>
+        <v>0.02022910016352548</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.009719188616684573</v>
+        <v>0.009528890454477666</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01669344035376407</v>
+        <v>0.01673549538741445</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04790185486145213</v>
+        <v>0.05061789201166168</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0278978197330098</v>
+        <v>0.0290738289786791</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03404560930005623</v>
+        <v>0.03317543772569068</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01405844903069301</v>
+        <v>0.01421248228424799</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01104520122006431</v>
+        <v>0.01137939826785687</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01424126143370274</v>
+        <v>0.01448748140714968</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03707614760191644</v>
+        <v>0.03748044033967425</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02671836902590493</v>
+        <v>0.0281016471080758</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02824509673417969</v>
+        <v>0.02765198906909878</v>
       </c>
     </row>
     <row r="16">
@@ -787,10 +787,10 @@
         <v>0.01043506273869571</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.009794837301206687</v>
+        <v>0.009794837301206689</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.01011500036263438</v>
+        <v>0.01011500036263439</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.004160348752895836</v>
+        <v>0.004412300637781049</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.004939828906510872</v>
+        <v>0.004481464827066286</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.006035618218233019</v>
+        <v>0.005981849345242997</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02070180852153501</v>
+        <v>0.02023061836443734</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01832181546908097</v>
+        <v>0.01856666097074772</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01626000309740034</v>
+        <v>0.01584187689861382</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         <v>0.004321138935453688</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.006214821876396611</v>
+        <v>0.006214821876396612</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.005301341622370895</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.001228642078598069</v>
+        <v>0.001235967925208219</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.001932149250726109</v>
+        <v>0.002239597590411954</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.002416899270510002</v>
+        <v>0.002393049700358979</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.01211051038610318</v>
+        <v>0.0126298971202109</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.01371631813754058</v>
+        <v>0.01331453729783464</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.01067510125511169</v>
+        <v>0.009916310753919393</v>
       </c>
     </row>
     <row r="22">
@@ -927,10 +927,10 @@
       </c>
       <c r="C24" s="5" t="inlineStr"/>
       <c r="D24" s="5" t="n">
-        <v>0.009858050523563195</v>
+        <v>0.008585077494448373</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.00465606570346927</v>
+        <v>0.00474308907235016</v>
       </c>
     </row>
     <row r="25">
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.0173654670732716</v>
+        <v>0.01720105046248395</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01123533471323783</v>
+        <v>0.01107604936178827</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01552988884242722</v>
+        <v>0.01535720644111731</v>
       </c>
     </row>
     <row r="27">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.03042448393576092</v>
+        <v>0.02949355497304706</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.01898947263148371</v>
+        <v>0.01921320309891753</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.02279040271801209</v>
+        <v>0.0225069527405774</v>
       </c>
     </row>
     <row r="28">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6167</v>
+        <v>6431</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>5967</v>
+        <v>6310</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>16126</v>
+        <v>16605</v>
       </c>
     </row>
     <row r="7">
@@ -1147,13 +1147,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>33426</v>
+        <v>34501</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>25062</v>
+        <v>24467</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>48043</v>
+        <v>47493</v>
       </c>
     </row>
     <row r="8">
@@ -1202,13 +1202,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>10863</v>
+        <v>10693</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3809</v>
+        <v>3753</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>16491</v>
+        <v>17547</v>
       </c>
     </row>
     <row r="11">
@@ -1219,13 +1219,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>36179</v>
+        <v>33168</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>17151</v>
+        <v>16454</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>42198</v>
+        <v>42295</v>
       </c>
     </row>
     <row r="12">
@@ -1274,13 +1274,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>11842</v>
+        <v>12559</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>6047</v>
+        <v>5928</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>20750</v>
+        <v>20802</v>
       </c>
     </row>
     <row r="15">
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>29739</v>
+        <v>31425</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>17356</v>
+        <v>18088</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>42318</v>
+        <v>41236</v>
       </c>
     </row>
     <row r="16">
@@ -1346,13 +1346,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>9824</v>
+        <v>9931</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>8099</v>
+        <v>8344</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>20394</v>
+        <v>20746</v>
       </c>
     </row>
     <row r="19">
@@ -1363,13 +1363,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>25907</v>
+        <v>26190</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>19592</v>
+        <v>20606</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>40448</v>
+        <v>39598</v>
       </c>
     </row>
     <row r="20">
@@ -1418,13 +1418,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2531</v>
+        <v>2684</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3004</v>
+        <v>2725</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>7342</v>
+        <v>7277</v>
       </c>
     </row>
     <row r="23">
@@ -1435,13 +1435,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>12594</v>
+        <v>12307</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>11143</v>
+        <v>11292</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>19781</v>
+        <v>19272</v>
       </c>
     </row>
     <row r="24">
@@ -1490,13 +1490,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>844</v>
+        <v>978</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>2040</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="27">
@@ -1507,13 +1507,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4930</v>
+        <v>5141</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>5991</v>
+        <v>5816</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>9009</v>
+        <v>8368</v>
       </c>
     </row>
     <row r="28">
@@ -1578,10 +1578,10 @@
       </c>
       <c r="C31" s="6" t="inlineStr"/>
       <c r="D31" s="6" t="n">
-        <v>4574</v>
+        <v>3984</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>3605</v>
+        <v>3672</v>
       </c>
     </row>
     <row r="32">
@@ -1630,13 +1630,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>61299</v>
+        <v>60718</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>41873</v>
+        <v>41280</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>112698</v>
+        <v>111445</v>
       </c>
     </row>
     <row r="35">
@@ -1647,13 +1647,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>107396</v>
+        <v>104110</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>70772</v>
+        <v>71606</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>165387</v>
+        <v>163330</v>
       </c>
     </row>
     <row r="36">
